--- a/data/pca/factorExposure/factorExposure_2016-09-12.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-09-12.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +711,76 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.007593071807287074</v>
+        <v>0.01301891663434955</v>
       </c>
       <c r="C2">
-        <v>-0.05287548348624568</v>
+        <v>0.04370795850768042</v>
       </c>
       <c r="D2">
-        <v>-0.03477531463977316</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.06709287211328627</v>
+      </c>
+      <c r="E2">
+        <v>0.05189679089319201</v>
+      </c>
+      <c r="F2">
+        <v>0.08419395202645104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>-0.05737281914818572</v>
+        <v>0.03180007158393562</v>
       </c>
       <c r="C3">
-        <v>-0.09739937436524665</v>
+        <v>0.08008022570349389</v>
       </c>
       <c r="D3">
-        <v>-0.06909624299237664</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.09426770560978814</v>
+      </c>
+      <c r="E3">
+        <v>0.06142817067122008</v>
+      </c>
+      <c r="F3">
+        <v>0.01484458307831006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.06211152909859694</v>
+        <v>0.05759402226980494</v>
       </c>
       <c r="C4">
-        <v>-0.05912013378882743</v>
+        <v>0.06605564041138282</v>
       </c>
       <c r="D4">
-        <v>-0.02716550710385819</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.06162241406741683</v>
+      </c>
+      <c r="E4">
+        <v>0.05116804424489536</v>
+      </c>
+      <c r="F4">
+        <v>0.08820273263556165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +791,236 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.0343411816021041</v>
+        <v>0.03296941777066096</v>
       </c>
       <c r="C6">
-        <v>-0.0382297626711767</v>
+        <v>0.0354654601686231</v>
       </c>
       <c r="D6">
-        <v>-0.03174765191059723</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.06854941977115589</v>
+      </c>
+      <c r="E6">
+        <v>0.0576636125036469</v>
+      </c>
+      <c r="F6">
+        <v>0.07281036617501283</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.01834009308049935</v>
+        <v>0.01916953355494201</v>
       </c>
       <c r="C7">
-        <v>-0.03791711747064276</v>
+        <v>0.03732232481421837</v>
       </c>
       <c r="D7">
-        <v>0.002912525036234555</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.03862914749685831</v>
+      </c>
+      <c r="E7">
+        <v>0.03206586893007823</v>
+      </c>
+      <c r="F7">
+        <v>0.1097516469724612</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.001363798686574086</v>
+        <v>0.003679551595249753</v>
       </c>
       <c r="C8">
-        <v>-0.02277096599835435</v>
+        <v>0.02796597330160859</v>
       </c>
       <c r="D8">
-        <v>-0.03272499524397469</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03694517717795342</v>
+      </c>
+      <c r="E8">
+        <v>0.04139278115561348</v>
+      </c>
+      <c r="F8">
+        <v>0.05115143590383937</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.03211885048474949</v>
+        <v>0.03664708554117284</v>
       </c>
       <c r="C9">
-        <v>-0.04295481288082446</v>
+        <v>0.05201312947951511</v>
       </c>
       <c r="D9">
-        <v>-0.01462179180216068</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.04690954173485342</v>
+      </c>
+      <c r="E9">
+        <v>0.04415327803098654</v>
+      </c>
+      <c r="F9">
+        <v>0.09320206764463017</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.07364298839324392</v>
+        <v>0.1009708903591872</v>
       </c>
       <c r="C10">
-        <v>0.1924882243599116</v>
+        <v>-0.1922546518692513</v>
       </c>
       <c r="D10">
-        <v>-0.004897804699247038</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.0004621040877602535</v>
+      </c>
+      <c r="E10">
+        <v>0.04549278957181192</v>
+      </c>
+      <c r="F10">
+        <v>0.03958969373168948</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.03669872422242764</v>
+        <v>0.03538424387154743</v>
       </c>
       <c r="C11">
-        <v>-0.05529106462635779</v>
+        <v>0.05138048222820035</v>
       </c>
       <c r="D11">
-        <v>-0.007194484678841923</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.03459469061980364</v>
+      </c>
+      <c r="E11">
+        <v>0.004983879079346055</v>
+      </c>
+      <c r="F11">
+        <v>0.06617335457375303</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.03356529380238824</v>
+        <v>0.03612553184605932</v>
       </c>
       <c r="C12">
-        <v>-0.04788874409130969</v>
+        <v>0.04791018573224199</v>
       </c>
       <c r="D12">
-        <v>-0.002943558508528789</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.02615844331492014</v>
+      </c>
+      <c r="E12">
+        <v>0.01432934980715088</v>
+      </c>
+      <c r="F12">
+        <v>0.06928933902320951</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.01156867332045966</v>
+        <v>0.01146500936473312</v>
       </c>
       <c r="C13">
-        <v>-0.04016245215109013</v>
+        <v>0.04052424482088551</v>
       </c>
       <c r="D13">
-        <v>-0.01966155334139821</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.06503320964151055</v>
+      </c>
+      <c r="E13">
+        <v>0.06177500763281442</v>
+      </c>
+      <c r="F13">
+        <v>0.1151436872737531</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.006015687222897215</v>
+        <v>0.005496533350483822</v>
       </c>
       <c r="C14">
-        <v>-0.03153898748758061</v>
+        <v>0.02989582992902087</v>
       </c>
       <c r="D14">
-        <v>0.01458866755533601</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.02961296365027139</v>
+      </c>
+      <c r="E14">
+        <v>0.02732373457341936</v>
+      </c>
+      <c r="F14">
+        <v>0.0997529191247491</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.001352662106627771</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.0031690806221927</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.004001838009509545</v>
+      </c>
+      <c r="E15">
+        <v>0.0002551737598331522</v>
+      </c>
+      <c r="F15">
+        <v>0.002589471769813414</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.03317912428318151</v>
+        <v>0.03296329432542251</v>
       </c>
       <c r="C16">
-        <v>-0.04347152420416446</v>
+        <v>0.0457290438797993</v>
       </c>
       <c r="D16">
-        <v>-0.008092024502614724</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.02945124408419255</v>
+      </c>
+      <c r="E16">
+        <v>0.01969663062557242</v>
+      </c>
+      <c r="F16">
+        <v>0.07044746962880334</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1031,16 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1051,176 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
-        <v>-0.02344622820281585</v>
+        <v>0.01634264276593221</v>
       </c>
       <c r="C19">
-        <v>-0.06014405699727185</v>
+        <v>0.0497564399866029</v>
       </c>
       <c r="D19">
-        <v>-0.07288985021115768</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.09999251617310564</v>
+      </c>
+      <c r="E19">
+        <v>0.07987311673648095</v>
+      </c>
+      <c r="F19">
+        <v>0.09405391640044275</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.01370637164127503</v>
+        <v>0.01333022912598767</v>
       </c>
       <c r="C20">
-        <v>-0.04210383653956797</v>
+        <v>0.0403927099454533</v>
       </c>
       <c r="D20">
-        <v>-0.02032850460525458</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.04289143388205369</v>
+      </c>
+      <c r="E20">
+        <v>0.05712316785739806</v>
+      </c>
+      <c r="F20">
+        <v>0.09064424984228699</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.007252386703132522</v>
+        <v>0.007407455814181908</v>
       </c>
       <c r="C21">
-        <v>-0.04675349068564642</v>
+        <v>0.04490963804208437</v>
       </c>
       <c r="D21">
-        <v>-0.03620552180639688</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.07055756322906882</v>
+      </c>
+      <c r="E21">
+        <v>0.07369418598257042</v>
+      </c>
+      <c r="F21">
+        <v>0.1343130635107067</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.0008105484911693963</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.02284682251131068</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.03452821860514048</v>
+      </c>
+      <c r="E22">
+        <v>0.01761679897677315</v>
+      </c>
+      <c r="F22">
+        <v>0.02036443678894911</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.0008768876409722361</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.02297273652597085</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.03421704698507804</v>
+      </c>
+      <c r="E23">
+        <v>0.01791074599689756</v>
+      </c>
+      <c r="F23">
+        <v>0.02023380912012366</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.02807556138143335</v>
+        <v>0.03231137109969458</v>
       </c>
       <c r="C24">
-        <v>-0.04878739603704249</v>
+        <v>0.05370080037914145</v>
       </c>
       <c r="D24">
-        <v>-0.004205825361160101</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.02767921062793184</v>
+      </c>
+      <c r="E24">
+        <v>0.01704357238049525</v>
+      </c>
+      <c r="F24">
+        <v>0.07906791702695633</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.04180311796080733</v>
+        <v>0.04209458647657416</v>
       </c>
       <c r="C25">
-        <v>-0.06042660611316184</v>
+        <v>0.05779352615756269</v>
       </c>
       <c r="D25">
-        <v>0.005539977415785546</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.02512978803011826</v>
+      </c>
+      <c r="E25">
+        <v>0.01177720185997777</v>
+      </c>
+      <c r="F25">
+        <v>0.08013652727168405</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.01136268497224967</v>
+        <v>0.01358731610202695</v>
       </c>
       <c r="C26">
-        <v>-0.01481044961760885</v>
+        <v>0.01642225583469931</v>
       </c>
       <c r="D26">
-        <v>-0.001865242881648657</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02709918460077191</v>
+      </c>
+      <c r="E26">
+        <v>0.02908612332546498</v>
+      </c>
+      <c r="F26">
+        <v>0.07593086439214623</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1231,156 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.08796159650522577</v>
+        <v>0.1362433650913332</v>
       </c>
       <c r="C28">
-        <v>0.2253026826690503</v>
+        <v>-0.2416202010302981</v>
       </c>
       <c r="D28">
-        <v>-0.001617575766479324</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.01533213902365728</v>
+      </c>
+      <c r="E28">
+        <v>0.04785404620087608</v>
+      </c>
+      <c r="F28">
+        <v>0.0548032137489436</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.00792844069575932</v>
+        <v>0.006411210193364739</v>
       </c>
       <c r="C29">
-        <v>-0.02511296294631793</v>
+        <v>0.02575633639015152</v>
       </c>
       <c r="D29">
-        <v>0.01476788645557885</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.02363734409143408</v>
+      </c>
+      <c r="E29">
+        <v>0.02955230366479486</v>
+      </c>
+      <c r="F29">
+        <v>0.09190850315093201</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.05061498364596898</v>
+        <v>0.04076566519228879</v>
       </c>
       <c r="C30">
-        <v>-0.05643987861189296</v>
+        <v>0.06446576790380189</v>
       </c>
       <c r="D30">
-        <v>-0.05177784515279419</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1088961930005208</v>
+      </c>
+      <c r="E30">
+        <v>0.03995017786406296</v>
+      </c>
+      <c r="F30">
+        <v>0.1045219999074343</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.04865544393379653</v>
+        <v>0.05461319669632839</v>
       </c>
       <c r="C31">
-        <v>-0.03426478062356245</v>
+        <v>0.0538994835550882</v>
       </c>
       <c r="D31">
-        <v>0.01125279367284757</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.006978273643027318</v>
+      </c>
+      <c r="E31">
+        <v>0.04924573097454214</v>
+      </c>
+      <c r="F31">
+        <v>0.08294518676744958</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.008701797702118211</v>
+        <v>0.004170600330896679</v>
       </c>
       <c r="C32">
-        <v>-0.04359288697415135</v>
+        <v>0.0334080315485901</v>
       </c>
       <c r="D32">
-        <v>-0.02478231692123558</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.05063856413304056</v>
+      </c>
+      <c r="E32">
+        <v>0.02259532829316038</v>
+      </c>
+      <c r="F32">
+        <v>0.07449568751627769</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.02653085261236946</v>
+        <v>0.02416477414625584</v>
       </c>
       <c r="C33">
-        <v>-0.05771984760074031</v>
+        <v>0.05411965495465952</v>
       </c>
       <c r="D33">
-        <v>-0.03403907369985709</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.08332036642368987</v>
+      </c>
+      <c r="E33">
+        <v>0.05040440883962208</v>
+      </c>
+      <c r="F33">
+        <v>0.1304423563508956</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.04343163596422354</v>
+        <v>0.04045904308087304</v>
       </c>
       <c r="C34">
-        <v>-0.06123606846314064</v>
+        <v>0.06361316953802396</v>
       </c>
       <c r="D34">
-        <v>0.002433649766846381</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.03489218842812863</v>
+      </c>
+      <c r="E34">
+        <v>-0.006817585726166169</v>
+      </c>
+      <c r="F34">
+        <v>0.07577805115521871</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1391,36 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.008099341722271339</v>
+        <v>0.01334732518653799</v>
       </c>
       <c r="C36">
-        <v>-0.01318671945531156</v>
+        <v>0.01216965227449421</v>
       </c>
       <c r="D36">
-        <v>-0.001992975707346222</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.02946924599175674</v>
+      </c>
+      <c r="E36">
+        <v>0.03545992255667963</v>
+      </c>
+      <c r="F36">
+        <v>0.08242132151488371</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1431,156 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.02959661576034771</v>
+        <v>0.02474192582909622</v>
       </c>
       <c r="C38">
-        <v>-0.02916911068495525</v>
+        <v>0.02514283270061004</v>
       </c>
       <c r="D38">
-        <v>-0.001610756852450609</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.02758363403204384</v>
+      </c>
+      <c r="E38">
+        <v>0.03482371522201948</v>
+      </c>
+      <c r="F38">
+        <v>0.06918268314625195</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.03928594149092235</v>
+        <v>0.03804778380225503</v>
       </c>
       <c r="C39">
-        <v>-0.07205099076781395</v>
+        <v>0.06859546133732893</v>
       </c>
       <c r="D39">
-        <v>-0.02119769414631793</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.0534417637476025</v>
+      </c>
+      <c r="E39">
+        <v>0.01832057104794579</v>
+      </c>
+      <c r="F39">
+        <v>0.09176496518444442</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.01793657046688975</v>
+        <v>0.01710322504978307</v>
       </c>
       <c r="C40">
-        <v>-0.03090798784718784</v>
+        <v>0.03754747235056277</v>
       </c>
       <c r="D40">
-        <v>-0.03689502251110085</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.04292295825735055</v>
+      </c>
+      <c r="E40">
+        <v>0.07472144262382993</v>
+      </c>
+      <c r="F40">
+        <v>0.0914578645305926</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.008489406569679043</v>
+        <v>0.01772263970139476</v>
       </c>
       <c r="C41">
-        <v>-0.008163286639992788</v>
+        <v>0.006250773588293843</v>
       </c>
       <c r="D41">
-        <v>-0.0009951196942428863</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01806094866924603</v>
+      </c>
+      <c r="E41">
+        <v>0.03822857694368485</v>
+      </c>
+      <c r="F41">
+        <v>0.07101961799132547</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
-        <v>-0.002233866411923657</v>
+        <v>0.001453709095896941</v>
       </c>
       <c r="C42">
-        <v>-0.00474337792115273</v>
+        <v>0.002609123807741983</v>
       </c>
       <c r="D42">
-        <v>-0.008992992518220269</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>-0.001590064821796988</v>
+      </c>
+      <c r="E42">
+        <v>0.008039187626696356</v>
+      </c>
+      <c r="F42">
+        <v>-0.006159023714378654</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.03136497079757784</v>
+        <v>0.02905277000359416</v>
       </c>
       <c r="C43">
-        <v>-0.02377341704253167</v>
+        <v>0.02116679723801975</v>
       </c>
       <c r="D43">
-        <v>-0.01202770080061305</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.04188684332605443</v>
+      </c>
+      <c r="E43">
+        <v>0.04383835113369217</v>
+      </c>
+      <c r="F43">
+        <v>0.08509438613571557</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.01526958030150322</v>
+        <v>0.01392243171488558</v>
       </c>
       <c r="C44">
-        <v>-0.05650087420344362</v>
+        <v>0.05187060033283585</v>
       </c>
       <c r="D44">
-        <v>-0.01740309114102399</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.04150871412371672</v>
+      </c>
+      <c r="E44">
+        <v>0.05708513200647593</v>
+      </c>
+      <c r="F44">
+        <v>0.08989327245030754</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1591,76 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.0002368028729726731</v>
+        <v>0.007450995574876067</v>
       </c>
       <c r="C46">
-        <v>-0.02374123142253098</v>
+        <v>0.02549979346230633</v>
       </c>
       <c r="D46">
-        <v>0.01972403835482053</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01450731202452305</v>
+      </c>
+      <c r="E46">
+        <v>0.03540805445527448</v>
+      </c>
+      <c r="F46">
+        <v>0.1050547265984895</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.07944605455709795</v>
+        <v>0.08559625041637407</v>
       </c>
       <c r="C47">
-        <v>-0.07258179687355705</v>
+        <v>0.08061617302674824</v>
       </c>
       <c r="D47">
-        <v>0.007174456867228305</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01608401110114433</v>
+      </c>
+      <c r="E47">
+        <v>0.05476613686851271</v>
+      </c>
+      <c r="F47">
+        <v>0.07817454268965389</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.01710533418814659</v>
+        <v>0.0157496113382073</v>
       </c>
       <c r="C48">
-        <v>-0.01163295620793715</v>
+        <v>0.01769390852846145</v>
       </c>
       <c r="D48">
-        <v>0.006264714458155293</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.02015971701067775</v>
+      </c>
+      <c r="E48">
+        <v>0.04590545877424045</v>
+      </c>
+      <c r="F48">
+        <v>0.09767736655167678</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1671,56 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.08512009684495658</v>
+        <v>0.07225292045139711</v>
       </c>
       <c r="C50">
-        <v>-0.0698602654578931</v>
+        <v>0.0705083760830169</v>
       </c>
       <c r="D50">
-        <v>0.01759729143224641</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.004425302695701371</v>
+      </c>
+      <c r="E50">
+        <v>0.05249451581437781</v>
+      </c>
+      <c r="F50">
+        <v>0.07042781479259941</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.01065095347845146</v>
+        <v>0.01025995215952382</v>
       </c>
       <c r="C51">
-        <v>-0.04455872762750673</v>
+        <v>0.0335899852326489</v>
       </c>
       <c r="D51">
-        <v>-0.008047393574510351</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.05009257125582951</v>
+      </c>
+      <c r="E51">
+        <v>0.02164126689970192</v>
+      </c>
+      <c r="F51">
+        <v>0.08582989918296777</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1731,196 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.08104266505860834</v>
+        <v>0.09192701970988329</v>
       </c>
       <c r="C53">
-        <v>-0.07461296146012432</v>
+        <v>0.08825184524284647</v>
       </c>
       <c r="D53">
-        <v>0.02577084648689382</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.0377260453566139</v>
+      </c>
+      <c r="E53">
+        <v>0.05410193547510236</v>
+      </c>
+      <c r="F53">
+        <v>0.08768346416596239</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.03081683064254696</v>
+        <v>0.02742915561981396</v>
       </c>
       <c r="C54">
-        <v>-0.02233538276122668</v>
+        <v>0.0270811625434656</v>
       </c>
       <c r="D54">
-        <v>-0.001163339939770851</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03291432559066595</v>
+      </c>
+      <c r="E54">
+        <v>0.03987729759913911</v>
+      </c>
+      <c r="F54">
+        <v>0.09689120590259107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.07089504920610472</v>
+        <v>0.08300747565008391</v>
       </c>
       <c r="C55">
-        <v>-0.06585436154719286</v>
+        <v>0.07226010376829661</v>
       </c>
       <c r="D55">
-        <v>0.02924532433568876</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.04483413597566526</v>
+      </c>
+      <c r="E55">
+        <v>0.04484533665471345</v>
+      </c>
+      <c r="F55">
+        <v>0.06487728506254986</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1474560539065505</v>
+        <v>0.144616839557898</v>
       </c>
       <c r="C56">
-        <v>-0.09346710754537033</v>
+        <v>0.1067065444822725</v>
       </c>
       <c r="D56">
-        <v>0.0318193729314207</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.04754339351170429</v>
+      </c>
+      <c r="E56">
+        <v>0.04880201057188326</v>
+      </c>
+      <c r="F56">
+        <v>0.0492908914380777</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
-        <v>-0.0006434956682645284</v>
+        <v>4.296829937972353e-05</v>
       </c>
       <c r="C57">
-        <v>-0.003736130632422448</v>
+        <v>0.00211902399622616</v>
       </c>
       <c r="D57">
-        <v>-0.01777525486259541</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>-0.01560224727145431</v>
+      </c>
+      <c r="E57">
+        <v>0.006570919028607979</v>
+      </c>
+      <c r="F57">
+        <v>0.009529143513887166</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.07396031373989984</v>
+        <v>0.02933093784633586</v>
       </c>
       <c r="C58">
-        <v>-0.01939963198992765</v>
+        <v>0.03949008614212061</v>
       </c>
       <c r="D58">
-        <v>-0.9366816281408863</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.49758551622421</v>
+      </c>
+      <c r="E58">
+        <v>0.6761378707617038</v>
+      </c>
+      <c r="F58">
+        <v>-0.464933395298503</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1364381585096759</v>
+        <v>0.1482625151355022</v>
       </c>
       <c r="C59">
-        <v>0.2045220865317302</v>
+        <v>-0.1858099151348385</v>
       </c>
       <c r="D59">
-        <v>-0.01407578131923656</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.03174582070594104</v>
+      </c>
+      <c r="E59">
+        <v>0.02506190500898956</v>
+      </c>
+      <c r="F59">
+        <v>0.02112086162200859</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.3157236679888495</v>
+        <v>0.2824970402632538</v>
       </c>
       <c r="C60">
-        <v>-0.09218933109910758</v>
+        <v>0.09875942881928897</v>
       </c>
       <c r="D60">
-        <v>-0.008991789037092034</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.1995561838108037</v>
+      </c>
+      <c r="E60">
+        <v>-0.2781416250832284</v>
+      </c>
+      <c r="F60">
+        <v>-0.1091141842678273</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.03735722772934234</v>
+        <v>0.04012804732525127</v>
       </c>
       <c r="C61">
-        <v>-0.06407539904910441</v>
+        <v>0.06240195766126</v>
       </c>
       <c r="D61">
-        <v>-0.01263948956391556</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.04781110349947449</v>
+      </c>
+      <c r="E61">
+        <v>0.02240574106786484</v>
+      </c>
+      <c r="F61">
+        <v>0.08345979245950737</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +1931,156 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.01387922906276685</v>
+        <v>0.01489424733415082</v>
       </c>
       <c r="C63">
-        <v>-0.03516417860691787</v>
+        <v>0.03249518470933617</v>
       </c>
       <c r="D63">
-        <v>-0.0004023628746751299</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.02445271493251238</v>
+      </c>
+      <c r="E63">
+        <v>0.03857227726109523</v>
+      </c>
+      <c r="F63">
+        <v>0.07728905592349991</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.05039811025861835</v>
+        <v>0.05481616372969442</v>
       </c>
       <c r="C64">
-        <v>-0.03519692292819861</v>
+        <v>0.05416616579378999</v>
       </c>
       <c r="D64">
-        <v>0.00728686202567394</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.007805534372970364</v>
+      </c>
+      <c r="E64">
+        <v>0.02115560505242436</v>
+      </c>
+      <c r="F64">
+        <v>0.085800288431366</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.0946259684475745</v>
+        <v>0.06649162410985922</v>
       </c>
       <c r="C65">
-        <v>-0.0392422183713507</v>
+        <v>0.03844965547752135</v>
       </c>
       <c r="D65">
-        <v>-0.0408235427356325</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.08669888006317439</v>
+      </c>
+      <c r="E65">
+        <v>0.03139428600851571</v>
+      </c>
+      <c r="F65">
+        <v>0.02270482893073259</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.05923019117128493</v>
+        <v>0.05005126605059386</v>
       </c>
       <c r="C66">
-        <v>-0.104613670500634</v>
+        <v>0.09153635733543501</v>
       </c>
       <c r="D66">
-        <v>-0.03322953037583819</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.08019002144579951</v>
+      </c>
+      <c r="E66">
+        <v>0.01980190486911325</v>
+      </c>
+      <c r="F66">
+        <v>0.09236082950124094</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.05237378721817691</v>
+        <v>0.04713992582032001</v>
       </c>
       <c r="C67">
-        <v>-0.03402214229049883</v>
+        <v>0.03078819630319868</v>
       </c>
       <c r="D67">
-        <v>0.004452151287798008</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.01359592773678129</v>
+      </c>
+      <c r="E67">
+        <v>0.01813557621230264</v>
+      </c>
+      <c r="F67">
+        <v>0.05418026924608531</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1165117776754922</v>
+        <v>0.1535321179062051</v>
       </c>
       <c r="C68">
-        <v>0.2872744821949653</v>
+        <v>-0.2502720026963077</v>
       </c>
       <c r="D68">
-        <v>0.00401007459574643</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.01738496734880938</v>
+      </c>
+      <c r="E68">
+        <v>0.04204360485859965</v>
+      </c>
+      <c r="F68">
+        <v>0.01894902699577208</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.08258704781676403</v>
+        <v>0.08622225181016008</v>
       </c>
       <c r="C69">
-        <v>-0.06932973062362913</v>
+        <v>0.08667649130184653</v>
       </c>
       <c r="D69">
-        <v>0.03343523534519995</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.01034620916325378</v>
+      </c>
+      <c r="E69">
+        <v>0.03208069495792644</v>
+      </c>
+      <c r="F69">
+        <v>0.09710003027697639</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2091,276 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1189503691620498</v>
+        <v>0.1454845878857612</v>
       </c>
       <c r="C71">
-        <v>0.2489841882948843</v>
+        <v>-0.231552646798938</v>
       </c>
       <c r="D71">
-        <v>-0.02298346963939703</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.01590322816489695</v>
+      </c>
+      <c r="E71">
+        <v>0.05997227593572307</v>
+      </c>
+      <c r="F71">
+        <v>0.05491350728898829</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.08525847379809039</v>
+        <v>0.09535981023351332</v>
       </c>
       <c r="C72">
-        <v>-0.04917430609558787</v>
+        <v>0.05737852579002845</v>
       </c>
       <c r="D72">
-        <v>0.01037257293352507</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.01942065373397218</v>
+      </c>
+      <c r="E72">
+        <v>0.009866794835661502</v>
+      </c>
+      <c r="F72">
+        <v>0.08104248670500019</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.4404768030300707</v>
+        <v>0.3462928155233924</v>
       </c>
       <c r="C73">
-        <v>-0.06422959841977904</v>
+        <v>0.08014334339015772</v>
       </c>
       <c r="D73">
-        <v>-0.08451876022722636</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.4243017206985681</v>
+      </c>
+      <c r="E73">
+        <v>-0.4932371804790606</v>
+      </c>
+      <c r="F73">
+        <v>-0.2894402932007271</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.1105447904404144</v>
+        <v>0.1097473204444096</v>
       </c>
       <c r="C74">
-        <v>-0.1097468638874133</v>
+        <v>0.1020108249908229</v>
       </c>
       <c r="D74">
-        <v>0.005652447320723152</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.02834493327920936</v>
+      </c>
+      <c r="E74">
+        <v>0.06319780219222025</v>
+      </c>
+      <c r="F74">
+        <v>0.0545594149863877</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.2481897188723786</v>
+        <v>0.2546831971610478</v>
       </c>
       <c r="C75">
-        <v>-0.1234920350000344</v>
+        <v>0.1403246912468752</v>
       </c>
       <c r="D75">
-        <v>0.04816659300445062</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1279692592601027</v>
+      </c>
+      <c r="E75">
+        <v>0.07538697271531125</v>
+      </c>
+      <c r="F75">
+        <v>0.01276079424423962</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>-0.1093807243984361</v>
+        <v>0.1272604347664297</v>
       </c>
       <c r="C76">
-        <v>-0.09746459803852559</v>
+        <v>0.1057812234494923</v>
       </c>
       <c r="D76">
-        <v>0.027976313431195</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.05801997798146862</v>
+      </c>
+      <c r="E76">
+        <v>0.06795608249421084</v>
+      </c>
+      <c r="F76">
+        <v>0.06706792430511357</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.07603095263400245</v>
+        <v>0.06144479517914989</v>
       </c>
       <c r="C77">
-        <v>-0.05721855086256335</v>
+        <v>0.06979485301219575</v>
       </c>
       <c r="D77">
-        <v>-0.05147324078742041</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.06560498590148346</v>
+      </c>
+      <c r="E77">
+        <v>0.06546654444219074</v>
+      </c>
+      <c r="F77">
+        <v>0.115427368503055</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.04582020890568764</v>
+        <v>0.04384824221054597</v>
       </c>
       <c r="C78">
-        <v>-0.04277432467609098</v>
+        <v>0.05434976324003451</v>
       </c>
       <c r="D78">
-        <v>-0.0179815556599792</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.07459106785382412</v>
+      </c>
+      <c r="E78">
+        <v>0.0228739224690499</v>
+      </c>
+      <c r="F78">
+        <v>0.1070458648237395</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.02331071636253722</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.03933723393964506</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.05967848342095495</v>
+      </c>
+      <c r="E79">
+        <v>0.05142767718918756</v>
+      </c>
+      <c r="F79">
+        <v>0.03698604575580538</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.04464827067059573</v>
+        <v>0.03435131229103051</v>
       </c>
       <c r="C80">
-        <v>-0.05550665091620838</v>
+        <v>0.05464857196258798</v>
       </c>
       <c r="D80">
-        <v>-0.02604128583765238</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.04801293065516319</v>
+      </c>
+      <c r="E80">
+        <v>0.008979834934654625</v>
+      </c>
+      <c r="F80">
+        <v>0.03362933770907794</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1405140433253978</v>
+        <v>0.1392123613038047</v>
       </c>
       <c r="C81">
-        <v>-0.0777090987610312</v>
+        <v>0.09891249176981412</v>
       </c>
       <c r="D81">
-        <v>0.02334237085634949</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.09385154861252781</v>
+      </c>
+      <c r="E81">
+        <v>0.08229379298617233</v>
+      </c>
+      <c r="F81">
+        <v>0.01883908691752672</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1292886105627384</v>
+        <v>0.1960995133365189</v>
       </c>
       <c r="C82">
-        <v>-0.06143734134374662</v>
+        <v>0.1396599876445667</v>
       </c>
       <c r="D82">
-        <v>0.1158529998446664</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2264404008221952</v>
+      </c>
+      <c r="E82">
+        <v>0.02069524906767701</v>
+      </c>
+      <c r="F82">
+        <v>0.08282259765394968</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.03032082949664409</v>
+        <v>0.02663914057234904</v>
       </c>
       <c r="C83">
-        <v>-0.0197797740383789</v>
+        <v>0.04062021795384488</v>
       </c>
       <c r="D83">
-        <v>-0.01635423447538111</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.03516302830723141</v>
+      </c>
+      <c r="E83">
+        <v>0.00770487377854611</v>
+      </c>
+      <c r="F83">
+        <v>0.04806986218891117</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2371,236 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.2263156267521577</v>
+        <v>0.2031728015119574</v>
       </c>
       <c r="C85">
-        <v>-0.1116784778218921</v>
+        <v>0.1244761602599807</v>
       </c>
       <c r="D85">
-        <v>0.09153742665082713</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.1040802757310654</v>
+      </c>
+      <c r="E85">
+        <v>0.005466219643637162</v>
+      </c>
+      <c r="F85">
+        <v>-0.02403619941501827</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.003503436639446564</v>
+        <v>0.01184244457625806</v>
       </c>
       <c r="C86">
-        <v>-0.02467886297864845</v>
+        <v>0.03010675550649083</v>
       </c>
       <c r="D86">
-        <v>-0.02761990457829796</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.07243245280556099</v>
+      </c>
+      <c r="E86">
+        <v>0.04291124043349538</v>
+      </c>
+      <c r="F86">
+        <v>0.1393264352938021</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.01780872249851757</v>
+        <v>0.01991673508437839</v>
       </c>
       <c r="C87">
-        <v>-0.01602243130142408</v>
+        <v>0.02229939693268482</v>
       </c>
       <c r="D87">
-        <v>-0.09111413673081786</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09376015860158544</v>
+      </c>
+      <c r="E87">
+        <v>0.08532052796703203</v>
+      </c>
+      <c r="F87">
+        <v>0.09338062789265732</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.1005929723055005</v>
+        <v>0.09004013232808483</v>
       </c>
       <c r="C88">
-        <v>-0.07299207537753273</v>
+        <v>0.06414159839613223</v>
       </c>
       <c r="D88">
-        <v>0.01791487555926146</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.01096969375981084</v>
+      </c>
+      <c r="E88">
+        <v>0.03258116573698792</v>
+      </c>
+      <c r="F88">
+        <v>0.06847445301350166</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1859921044456209</v>
+        <v>0.2279441291872656</v>
       </c>
       <c r="C89">
-        <v>0.3746317067442462</v>
+        <v>-0.3783910957664318</v>
       </c>
       <c r="D89">
-        <v>0.02608306448916448</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.01325617126856019</v>
+      </c>
+      <c r="E89">
+        <v>0.04118311407511448</v>
+      </c>
+      <c r="F89">
+        <v>0.09986734160356783</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1747213114577247</v>
+        <v>0.205018501769673</v>
       </c>
       <c r="C90">
-        <v>0.3442736831718176</v>
+        <v>-0.3127467960375723</v>
       </c>
       <c r="D90">
-        <v>0.01285570404589915</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.0117576124734561</v>
+      </c>
+      <c r="E90">
+        <v>0.06608219340808945</v>
+      </c>
+      <c r="F90">
+        <v>0.04842112600352674</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1966979414986599</v>
+        <v>0.1877294520977445</v>
       </c>
       <c r="C91">
-        <v>-0.1160023124621674</v>
+        <v>0.141483024151973</v>
       </c>
       <c r="D91">
-        <v>0.04735196947913831</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.1020240807047598</v>
+      </c>
+      <c r="E91">
+        <v>0.07157449658953975</v>
+      </c>
+      <c r="F91">
+        <v>0.03718552409338724</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1697811901168992</v>
+        <v>0.1849308521693776</v>
       </c>
       <c r="C92">
-        <v>0.2924194593877449</v>
+        <v>-0.2794393640780857</v>
       </c>
       <c r="D92">
-        <v>0.01419435701394309</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.002740037946895323</v>
+      </c>
+      <c r="E92">
+        <v>0.07144224066399389</v>
+      </c>
+      <c r="F92">
+        <v>0.07451317249279094</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.2034553813706241</v>
+        <v>0.2295774246684368</v>
       </c>
       <c r="C93">
-        <v>0.3340631181431625</v>
+        <v>-0.3179387832408147</v>
       </c>
       <c r="D93">
-        <v>0.005951853575199661</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.0009910581721399481</v>
+      </c>
+      <c r="E93">
+        <v>0.05098022682355682</v>
+      </c>
+      <c r="F93">
+        <v>0.04518036695622991</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.3180668912108753</v>
+        <v>0.3402504236739762</v>
       </c>
       <c r="C94">
-        <v>-0.170800419949983</v>
+        <v>0.1912739001252187</v>
       </c>
       <c r="D94">
-        <v>0.1895651376350234</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4717256949209025</v>
+      </c>
+      <c r="E94">
+        <v>0.1530606049112365</v>
+      </c>
+      <c r="F94">
+        <v>-0.4351432403433103</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.08919832200269232</v>
+        <v>0.08170205283699032</v>
       </c>
       <c r="C95">
-        <v>-0.06775536742810134</v>
+        <v>0.07160575570153574</v>
       </c>
       <c r="D95">
-        <v>-0.03427450722496995</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1540583748461181</v>
+      </c>
+      <c r="E95">
+        <v>-0.1328547086555479</v>
+      </c>
+      <c r="F95">
+        <v>0.1731357941776744</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2611,16 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2631,36 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.196327482308061</v>
+        <v>0.1880977749267433</v>
       </c>
       <c r="C98">
-        <v>-0.01428633457508069</v>
+        <v>0.0415739955866974</v>
       </c>
       <c r="D98">
-        <v>-0.04727133029701168</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1748713040229202</v>
+      </c>
+      <c r="E98">
+        <v>-0.1594738281675332</v>
+      </c>
+      <c r="F98">
+        <v>-0.0411593930366167</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2671,16 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2691,56 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.007908522160977793</v>
+        <v>0.006423752530911563</v>
       </c>
       <c r="C101">
-        <v>-0.02525496751815416</v>
+        <v>0.02553113581754654</v>
       </c>
       <c r="D101">
-        <v>0.01498515801834822</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.02308741368681195</v>
+      </c>
+      <c r="E101">
+        <v>0.03018184293216659</v>
+      </c>
+      <c r="F101">
+        <v>0.09165452075402264</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
-        <v>-0.1203241433578928</v>
+        <v>0.1226290007094691</v>
       </c>
       <c r="C102">
-        <v>-0.07620718084201644</v>
+        <v>0.1006165370686257</v>
       </c>
       <c r="D102">
-        <v>0.03218349366566077</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.05126237585886333</v>
+      </c>
+      <c r="E102">
+        <v>-0.008400223312186103</v>
+      </c>
+      <c r="F102">
+        <v>0.0362919388075845</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
